--- a/杭州成交日报月报.xlsx
+++ b/杭州成交日报月报.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowHeight="17775" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="按日" sheetId="1" r:id="rId1"/>
+    <sheet name="按月" sheetId="2" r:id="rId2"/>
+    <sheet name="图表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="40">
   <si>
     <t>年</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>31</t>
+  </si>
+  <si>
+    <t>新房成交量</t>
+  </si>
+  <si>
+    <t>二手房成交量</t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -794,6 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1236,9 +1243,10 @@
     <wpswe:property key="loadingImage" value="res:/icons/DsWebShapeDefaultPage.svg"/>
   </wpswe:properties>
   <wpswe:watchingCache>
+    <wpswe:linkPath>E:\03.SRC\Python\GetData\杭州成交日报月报.xlsx</wpswe:linkPath>
     <wpswe:dataRange>
       <wpswe:key>data_source</wpswe:key>
-      <wpswe:context>Sheet1!$D$1:$G$506</wpswe:context>
+      <wpswe:context>按日!$D$1:$G$506</wpswe:context>
       <wpswe:count>506</wpswe:count>
       <wpswe:cells wpswe:idx="0">
         <wpswe:count>4</wpswe:count>
@@ -9338,7 +9346,8 @@
       </wpswe:cells>
     </wpswe:dataRange>
   </wpswe:watchingCache>
-  <wpswe:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+  <wpswe:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+  <wpswe:externalData xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <wpswe:url>https://clientweb.docer.wps.cn//docer-ds/web-shape-1.0.0/?id=48&amp;dschart_id=5948734748594536789&amp;from=insert_Line&amp;productEntry=dropwin&amp;sceneEntry=docrec-48</wpswe:url>
   <wpswe:constantSnapshot>false</wpswe:constantSnapshot>
 </wpswe:webExtension>
@@ -9350,15 +9359,16 @@
   <wpswe:properties>
     <wpswe:property key="DiscardFirstCodeChange" value="0"/>
     <wpswe:property key="autoSnapshot" value="0"/>
-    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;年月日&quot;,&quot;新房成交&quot;,&quot;二手房成交&quot;,&quot;涨价房源&quot;],[&quot;202210&quot;,&quot;9319&quot;,&quot;4283&quot;,&quot;764&quot;],[&quot;202211&quot;,&quot;10293&quot;,&quot;5060&quot;,&quot;1178&quot;],[&quot;202212&quot;,&quot;12310&quot;,&quot;7913&quot;,&quot;1781&quot;],[&quot;202301&quot;,&quot;9501&quot;,&quot;2591&quot;,&quot;800&quot;],[&quot;202302&quot;,&quot;8904&quot;,&quot;6725&quot;,&quot;3376&quot;],[&quot;202303&quot;,&quot;11634&quot;,&quot;9716&quot;,&quot;3495&quot;],[&quot;202304&quot;,&quot;10175&quot;,&quot;5850&quot;,&quot;4370&quot;],[&quot;202305&quot;,&quot;6554&quot;,&quot;5499&quot;,&quot;6301&quot;],[&quot;202306&quot;,&quot;5774&quot;,&quot;3384&quot;,&quot;6170&quot;],[&quot;202307&quot;,&quot;5070&quot;,&quot;3597&quot;,&quot;2585&quot;],[&quot;202308&quot;,&quot;5247&quot;,&quot;3555&quot;,&quot;862&quot;],[&quot;202309&quot;,&quot;7417&quot;,&quot;3900&quot;,&quot;1387&quot;],[&quot;202310&quot;,&quot;5878&quot;,&quot;5105&quot;,&quot;1364&quot;],[&quot;202311&quot;,&quot;8020&quot;,&quot;7765&quot;,&quot;1910&quot;],[&quot;202312&quot;,&quot;11380&quot;,&quot;5709&quot;,&quot;1815&quot;],[&quot;202401&quot;,&quot;4109&quot;,&quot;4155&quot;,&quot;2135&quot;],[&quot;202402&quot;,&quot;1418&quot;,&quot;1326&quot;,&quot;1003&quot;],[&quot;202403&quot;,&quot;6494&quot;,&quot;7041&quot;,&quot;3550&quot;],[&quot;202404&quot;,&quot;4258&quot;,&quot;5975&quot;,&quot;2068&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:526,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1218},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;flag&quot;:&quot;1002&quot;,&quot;id&quot;:&quot;48&quot;}"/>
+    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;年月日&quot;,&quot;新房成交量&quot;,&quot;二手房成交量&quot;,&quot;涨价房源&quot;],[&quot;202210&quot;,&quot;9319&quot;,&quot;4283&quot;,&quot;764&quot;],[&quot;202211&quot;,&quot;10293&quot;,&quot;5060&quot;,&quot;1178&quot;],[&quot;202212&quot;,&quot;12310&quot;,&quot;7913&quot;,&quot;1781&quot;],[&quot;202301&quot;,&quot;9501&quot;,&quot;2591&quot;,&quot;800&quot;],[&quot;202302&quot;,&quot;8904&quot;,&quot;6725&quot;,&quot;3376&quot;],[&quot;202303&quot;,&quot;11634&quot;,&quot;9716&quot;,&quot;3495&quot;],[&quot;202304&quot;,&quot;10175&quot;,&quot;5850&quot;,&quot;4370&quot;],[&quot;202305&quot;,&quot;6554&quot;,&quot;5499&quot;,&quot;6301&quot;],[&quot;202306&quot;,&quot;5774&quot;,&quot;3384&quot;,&quot;6170&quot;],[&quot;202307&quot;,&quot;5070&quot;,&quot;3597&quot;,&quot;2585&quot;],[&quot;202308&quot;,&quot;5247&quot;,&quot;3555&quot;,&quot;862&quot;],[&quot;202309&quot;,&quot;7417&quot;,&quot;3900&quot;,&quot;1387&quot;],[&quot;202310&quot;,&quot;5878&quot;,&quot;5105&quot;,&quot;1364&quot;],[&quot;202311&quot;,&quot;8020&quot;,&quot;7765&quot;,&quot;1910&quot;],[&quot;202312&quot;,&quot;11380&quot;,&quot;5709&quot;,&quot;1815&quot;],[&quot;202401&quot;,&quot;4109&quot;,&quot;4155&quot;,&quot;2135&quot;],[&quot;202402&quot;,&quot;1418&quot;,&quot;1326&quot;,&quot;1003&quot;],[&quot;202403&quot;,&quot;6494&quot;,&quot;7041&quot;,&quot;3550&quot;],[&quot;202404&quot;,&quot;4258&quot;,&quot;5975&quot;,&quot;2068&quot;],[&quot;202405&quot;,&quot;5212&quot;,&quot;6067&quot;,&quot;2982&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:526,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1218},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
     <wpswe:property key="isUseCommonErrorPage" value="false"/>
     <wpswe:property key="loadingImage" value="res:/icons/DsWebShapeDefaultPage.svg"/>
   </wpswe:properties>
   <wpswe:watchingCache>
+    <wpswe:linkPath>E:\03.SRC\Python\GetData\杭州成交日报月报.xlsx</wpswe:linkPath>
     <wpswe:dataRange>
       <wpswe:key>data_source</wpswe:key>
-      <wpswe:context>Sheet2!$C$1:$F$20</wpswe:context>
-      <wpswe:count>20</wpswe:count>
+      <wpswe:context>图表!$C$1:$F$21</wpswe:context>
+      <wpswe:count>21</wpswe:count>
       <wpswe:cells wpswe:idx="0">
         <wpswe:count>4</wpswe:count>
         <wpswe:formatCode>General</wpswe:formatCode>
@@ -9366,10 +9376,10 @@
           <wpswe:value>年月日</wpswe:value>
         </wpswe:cell>
         <wpswe:cell wpswe:idx="1">
-          <wpswe:value>新房成交</wpswe:value>
-        </wpswe:cell>
-        <wpswe:cell wpswe:idx="2">
-          <wpswe:value>二手房成交</wpswe:value>
+          <wpswe:value>新房成交量</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>二手房成交量</wpswe:value>
         </wpswe:cell>
         <wpswe:cell wpswe:idx="3">
           <wpswe:value>涨价房源</wpswe:value>
@@ -9677,11 +9687,28 @@
         </wpswe:cell>
         <wpswe:cell wpswe:idx="3">
           <wpswe:value>2068</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="20">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>202405</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>5212</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>6067</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>2982</wpswe:value>
         </wpswe:cell>
       </wpswe:cells>
     </wpswe:dataRange>
   </wpswe:watchingCache>
-  <wpswe:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+  <wpswe:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+  <wpswe:externalData xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <wpswe:url>https://clientweb.docer.wps.cn//docer-ds/web-shape-1.0.0/?id=48&amp;dschart_id=5948734748594536789&amp;from=insert_Line&amp;productEntry=dropwin&amp;sceneEntry=docrec-48</wpswe:url>
   <wpswe:constantSnapshot>false</wpswe:constantSnapshot>
 </wpswe:webExtension>
@@ -9690,10 +9717,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G521"/>
+  <dimension ref="A1:G546"/>
   <sheetViews>
-    <sheetView topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="A499" sqref="A499:G521"/>
+    <sheetView topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="A546" sqref="A546:G546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -21846,12 +21873,12 @@
     </row>
     <row r="507" spans="1:7">
       <c r="A507">
-        <v>2025</v>
-      </c>
-      <c r="B507" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B507" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C507" s="4" t="s">
+      <c r="C507" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D507" t="str">
@@ -21870,12 +21897,12 @@
     </row>
     <row r="508" spans="1:7">
       <c r="A508">
-        <v>2026</v>
-      </c>
-      <c r="B508" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B508" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C508" s="4" t="s">
+      <c r="C508" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D508" t="str">
@@ -21894,12 +21921,12 @@
     </row>
     <row r="509" spans="1:7">
       <c r="A509">
-        <v>2027</v>
-      </c>
-      <c r="B509" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B509" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C509" s="4" t="s">
+      <c r="C509" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D509" t="str">
@@ -21918,12 +21945,12 @@
     </row>
     <row r="510" spans="1:7">
       <c r="A510">
-        <v>2028</v>
-      </c>
-      <c r="B510" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B510" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C510" s="4" t="s">
+      <c r="C510" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D510" t="str">
@@ -21942,12 +21969,12 @@
     </row>
     <row r="511" spans="1:7">
       <c r="A511">
-        <v>2029</v>
-      </c>
-      <c r="B511" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B511" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C511" s="4" t="s">
+      <c r="C511" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D511" t="str">
@@ -21966,12 +21993,12 @@
     </row>
     <row r="512" spans="1:7">
       <c r="A512">
-        <v>2030</v>
-      </c>
-      <c r="B512" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B512" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C512" s="4" t="s">
+      <c r="C512" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D512" t="str">
@@ -21990,12 +22017,12 @@
     </row>
     <row r="513" spans="1:7">
       <c r="A513">
-        <v>2031</v>
-      </c>
-      <c r="B513" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B513" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C513" s="4" t="s">
+      <c r="C513" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D513" t="str">
@@ -22014,12 +22041,12 @@
     </row>
     <row r="514" spans="1:7">
       <c r="A514">
-        <v>2032</v>
-      </c>
-      <c r="B514" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B514" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C514" s="4" t="s">
+      <c r="C514" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D514" t="str">
@@ -22038,12 +22065,12 @@
     </row>
     <row r="515" spans="1:7">
       <c r="A515">
-        <v>2033</v>
-      </c>
-      <c r="B515" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B515" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C515" s="4" t="s">
+      <c r="C515" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D515" t="str">
@@ -22062,12 +22089,12 @@
     </row>
     <row r="516" spans="1:7">
       <c r="A516">
-        <v>2034</v>
-      </c>
-      <c r="B516" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B516" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C516" s="4" t="s">
+      <c r="C516" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D516" t="str">
@@ -22086,12 +22113,12 @@
     </row>
     <row r="517" spans="1:7">
       <c r="A517">
-        <v>2035</v>
-      </c>
-      <c r="B517" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B517" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C517" s="4" t="s">
+      <c r="C517" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D517" t="str">
@@ -22110,12 +22137,12 @@
     </row>
     <row r="518" spans="1:7">
       <c r="A518">
-        <v>2036</v>
-      </c>
-      <c r="B518" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B518" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C518" s="4" t="s">
+      <c r="C518" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D518" t="str">
@@ -22134,12 +22161,12 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519">
-        <v>2037</v>
-      </c>
-      <c r="B519" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B519" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C519" s="4" t="s">
+      <c r="C519" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D519" t="str">
@@ -22158,12 +22185,12 @@
     </row>
     <row r="520" spans="1:7">
       <c r="A520">
-        <v>2038</v>
-      </c>
-      <c r="B520" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B520" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C520" s="4" t="s">
+      <c r="C520" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D520" t="str">
@@ -22182,12 +22209,12 @@
     </row>
     <row r="521" spans="1:7">
       <c r="A521">
-        <v>2039</v>
-      </c>
-      <c r="B521" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B521" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C521" s="4" t="s">
+      <c r="C521" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D521" t="str">
@@ -22202,6 +22229,606 @@
       </c>
       <c r="G521" s="3">
         <v>120</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
+      <c r="A522">
+        <v>2024</v>
+      </c>
+      <c r="B522" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D522" t="str">
+        <f t="shared" ref="D522:D527" si="9">_xlfn.CONCAT(B522:C522)</f>
+        <v>0531</v>
+      </c>
+      <c r="E522" s="3">
+        <v>382</v>
+      </c>
+      <c r="F522" s="3">
+        <v>287</v>
+      </c>
+      <c r="G522" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7">
+      <c r="A523">
+        <v>2024</v>
+      </c>
+      <c r="B523" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C523" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D523" t="str">
+        <f t="shared" si="9"/>
+        <v>0601</v>
+      </c>
+      <c r="E523" s="3">
+        <v>160</v>
+      </c>
+      <c r="F523" s="3">
+        <v>227</v>
+      </c>
+      <c r="G523" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7">
+      <c r="A524">
+        <v>2024</v>
+      </c>
+      <c r="B524" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C524" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D524" t="str">
+        <f t="shared" si="9"/>
+        <v>0602</v>
+      </c>
+      <c r="E524" s="3">
+        <v>88</v>
+      </c>
+      <c r="F524" s="3">
+        <v>196</v>
+      </c>
+      <c r="G524" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7">
+      <c r="A525">
+        <v>2024</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C525" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D525" t="str">
+        <f t="shared" si="9"/>
+        <v>0603</v>
+      </c>
+      <c r="E525" s="3">
+        <v>186</v>
+      </c>
+      <c r="F525" s="3">
+        <v>300</v>
+      </c>
+      <c r="G525" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7">
+      <c r="A526">
+        <v>2024</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D526" t="str">
+        <f t="shared" si="9"/>
+        <v>0604</v>
+      </c>
+      <c r="E526" s="3">
+        <v>121</v>
+      </c>
+      <c r="F526" s="3">
+        <v>271</v>
+      </c>
+      <c r="G526" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7">
+      <c r="A527">
+        <v>2024</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C527" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D527" t="str">
+        <f t="shared" si="9"/>
+        <v>0605</v>
+      </c>
+      <c r="E527" s="3">
+        <v>319</v>
+      </c>
+      <c r="F527" s="3">
+        <v>294</v>
+      </c>
+      <c r="G527" s="3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7">
+      <c r="A528">
+        <v>2024</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C528" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D528" t="str">
+        <f t="shared" ref="D528:D545" si="10">_xlfn.CONCAT(B528:C528)</f>
+        <v>0606</v>
+      </c>
+      <c r="E528" s="3">
+        <v>285</v>
+      </c>
+      <c r="F528" s="3">
+        <v>291</v>
+      </c>
+      <c r="G528" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7">
+      <c r="A529">
+        <v>2024</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C529" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D529" t="str">
+        <f t="shared" si="10"/>
+        <v>0607</v>
+      </c>
+      <c r="E529" s="3">
+        <v>280</v>
+      </c>
+      <c r="F529" s="3">
+        <v>324</v>
+      </c>
+      <c r="G529" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="A530">
+        <v>2024</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D530" t="str">
+        <f t="shared" si="10"/>
+        <v>0608</v>
+      </c>
+      <c r="E530" s="3">
+        <v>59</v>
+      </c>
+      <c r="F530" s="3">
+        <v>176</v>
+      </c>
+      <c r="G530" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531">
+        <v>2024</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C531" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D531" t="str">
+        <f t="shared" si="10"/>
+        <v>0609</v>
+      </c>
+      <c r="E531" s="3">
+        <v>30</v>
+      </c>
+      <c r="F531" s="3">
+        <v>124</v>
+      </c>
+      <c r="G531" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="A532">
+        <v>2024</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C532" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D532" t="str">
+        <f t="shared" si="10"/>
+        <v>0610</v>
+      </c>
+      <c r="E532" s="3">
+        <v>3</v>
+      </c>
+      <c r="F532" s="3">
+        <v>4</v>
+      </c>
+      <c r="G532" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533">
+        <v>2024</v>
+      </c>
+      <c r="B533" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C533" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D533" t="str">
+        <f t="shared" si="10"/>
+        <v>0611</v>
+      </c>
+      <c r="E533" s="3">
+        <v>337</v>
+      </c>
+      <c r="F533" s="3">
+        <v>525</v>
+      </c>
+      <c r="G533" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534">
+        <v>2024</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C534" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D534" t="str">
+        <f t="shared" si="10"/>
+        <v>0612</v>
+      </c>
+      <c r="E534" s="3">
+        <v>393</v>
+      </c>
+      <c r="F534" s="3">
+        <v>295</v>
+      </c>
+      <c r="G534" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535">
+        <v>2024</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D535" t="str">
+        <f t="shared" si="10"/>
+        <v>0613</v>
+      </c>
+      <c r="E535" s="3">
+        <v>335</v>
+      </c>
+      <c r="F535" s="3">
+        <v>295</v>
+      </c>
+      <c r="G535" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="A536">
+        <v>2024</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C536" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D536" t="str">
+        <f t="shared" si="10"/>
+        <v>0615</v>
+      </c>
+      <c r="E536" s="3">
+        <v>154</v>
+      </c>
+      <c r="F536" s="3">
+        <v>257</v>
+      </c>
+      <c r="G536" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537">
+        <v>2024</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C537" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D537" t="str">
+        <f t="shared" si="10"/>
+        <v>0616</v>
+      </c>
+      <c r="E537" s="3">
+        <v>90</v>
+      </c>
+      <c r="F537" s="3">
+        <v>228</v>
+      </c>
+      <c r="G537" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538">
+        <v>2024</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D538" t="str">
+        <f t="shared" si="10"/>
+        <v>0617</v>
+      </c>
+      <c r="E538" s="3">
+        <v>275</v>
+      </c>
+      <c r="F538" s="3">
+        <v>364</v>
+      </c>
+      <c r="G538" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="A539">
+        <v>2024</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C539" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D539" t="str">
+        <f t="shared" si="10"/>
+        <v>0618</v>
+      </c>
+      <c r="E539" s="3">
+        <v>362</v>
+      </c>
+      <c r="F539" s="3">
+        <v>271</v>
+      </c>
+      <c r="G539" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540">
+        <v>2024</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D540" t="str">
+        <f t="shared" si="10"/>
+        <v>0619</v>
+      </c>
+      <c r="E540" s="3">
+        <v>494</v>
+      </c>
+      <c r="F540" s="3">
+        <v>262</v>
+      </c>
+      <c r="G540" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541">
+        <v>2024</v>
+      </c>
+      <c r="B541" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C541" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D541" t="str">
+        <f t="shared" si="10"/>
+        <v>0620</v>
+      </c>
+      <c r="E541" s="3">
+        <v>295</v>
+      </c>
+      <c r="F541" s="3">
+        <v>295</v>
+      </c>
+      <c r="G541" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542">
+        <v>2024</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D542" t="str">
+        <f t="shared" si="10"/>
+        <v>0621</v>
+      </c>
+      <c r="E542" s="3">
+        <v>326</v>
+      </c>
+      <c r="F542" s="3">
+        <v>289</v>
+      </c>
+      <c r="G542" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543">
+        <v>2024</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D543" t="str">
+        <f t="shared" si="10"/>
+        <v>0622</v>
+      </c>
+      <c r="E543" s="3">
+        <v>102</v>
+      </c>
+      <c r="F543" s="3">
+        <v>281</v>
+      </c>
+      <c r="G543" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7">
+      <c r="A544">
+        <v>2024</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D544" t="str">
+        <f t="shared" si="10"/>
+        <v>0623</v>
+      </c>
+      <c r="E544" s="3">
+        <v>73</v>
+      </c>
+      <c r="F544" s="3">
+        <v>232</v>
+      </c>
+      <c r="G544" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
+      <c r="A545">
+        <v>2024</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C545" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D545" t="str">
+        <f t="shared" si="10"/>
+        <v>0624</v>
+      </c>
+      <c r="E545" s="3">
+        <v>301</v>
+      </c>
+      <c r="F545" s="3">
+        <v>337</v>
+      </c>
+      <c r="G545" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7">
+      <c r="A546">
+        <v>2024</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C546" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D546" t="str">
+        <f>_xlfn.CONCAT(B546:C546)</f>
+        <v>0625</v>
+      </c>
+      <c r="E546">
+        <v>381</v>
+      </c>
+      <c r="F546">
+        <v>268</v>
+      </c>
+      <c r="G546">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -22221,8 +22848,8 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -22272,15 +22899,15 @@
       </c>
       <c r="I2">
         <f>SUM($M$10:$M$41)</f>
-        <v>4830</v>
+        <v>5449</v>
       </c>
       <c r="J2">
         <f>SUM($N$10:$N$41)</f>
-        <v>5780</v>
+        <v>6406</v>
       </c>
       <c r="K2">
         <f>SUM($O$10:$O$41)</f>
-        <v>2890</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -22453,24 +23080,24 @@
       <c r="I10">
         <v>2024</v>
       </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L32" si="1">_xlfn.CONCAT(J10:K10)</f>
-        <v>0501</v>
+        <f t="shared" ref="L10:L33" si="1">_xlfn.CONCAT(J10:K10)</f>
+        <v>0601</v>
       </c>
       <c r="M10" s="3">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="O10" s="3">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -22496,24 +23123,24 @@
       <c r="I11">
         <v>2024</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>0507</v>
+        <v>0602</v>
       </c>
       <c r="M11" s="3">
-        <v>269</v>
+        <v>88</v>
       </c>
       <c r="N11" s="3">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -22539,24 +23166,24 @@
       <c r="I12">
         <v>2024</v>
       </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
+      <c r="J12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>0508</v>
+        <v>0603</v>
       </c>
       <c r="M12" s="3">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="N12" s="3">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="O12" s="3">
-        <v>143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -22582,24 +23209,24 @@
       <c r="I13">
         <v>2024</v>
       </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>7</v>
+      <c r="J13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>0509</v>
+        <v>0604</v>
       </c>
       <c r="M13" s="3">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="N13" s="3">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="O13" s="3">
-        <v>193</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -22625,24 +23252,24 @@
       <c r="I14">
         <v>2024</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>0510</v>
+        <v>0605</v>
       </c>
       <c r="M14" s="3">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="N14" s="3">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="O14" s="3">
-        <v>158</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -22668,24 +23295,24 @@
       <c r="I15">
         <v>2024</v>
       </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
+      <c r="J15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>0511</v>
+        <v>0606</v>
       </c>
       <c r="M15" s="3">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="N15" s="3">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="O15" s="3">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -22711,24 +23338,24 @@
       <c r="I16">
         <v>2024</v>
       </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>0512</v>
+        <v>0607</v>
       </c>
       <c r="M16" s="3">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="N16" s="3">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="O16" s="3">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -22754,24 +23381,24 @@
       <c r="I17">
         <v>2024</v>
       </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>23</v>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>0513</v>
+        <v>0608</v>
       </c>
       <c r="M17" s="3">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="N17" s="3">
-        <v>334</v>
+        <v>176</v>
       </c>
       <c r="O17" s="3">
-        <v>157</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -22795,26 +23422,26 @@
         <v>1003</v>
       </c>
       <c r="I18">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>0514</v>
+        <v>0609</v>
       </c>
       <c r="M18" s="3">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="N18" s="3">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="O18" s="3">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -22838,26 +23465,26 @@
         <v>3550</v>
       </c>
       <c r="I19">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>0515</v>
+        <v>0610</v>
       </c>
       <c r="M19" s="3">
-        <v>278</v>
+        <v>3</v>
       </c>
       <c r="N19" s="3">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="O19" s="3">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -22881,53 +23508,69 @@
         <v>2068</v>
       </c>
       <c r="I20">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>0516</v>
+        <v>0611</v>
       </c>
       <c r="M20" s="3">
-        <v>148</v>
+        <v>337</v>
       </c>
       <c r="N20" s="3">
-        <v>281</v>
+        <v>525</v>
       </c>
       <c r="O20" s="3">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>2024</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="str">
+        <f>_xlfn.CONCAT(A21:B21)</f>
+        <v>202405</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5212</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6067</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2982</v>
+      </c>
       <c r="I21">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>0517</v>
+        <v>0612</v>
       </c>
       <c r="M21" s="3">
-        <v>213</v>
+        <v>393</v>
       </c>
       <c r="N21" s="3">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="O21" s="3">
-        <v>163</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="4:15">
@@ -22935,26 +23578,26 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="I22">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>0518</v>
+        <v>0613</v>
       </c>
       <c r="M22" s="3">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="N22" s="3">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="O22" s="3">
-        <v>158</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="4:15">
@@ -22962,26 +23605,26 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="I23">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>0519</v>
+        <v>0615</v>
       </c>
       <c r="M23" s="3">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="N23" s="3">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="O23" s="3">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="4:15">
@@ -22989,26 +23632,26 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="I24">
-        <v>2031</v>
+        <v>2024</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>0520</v>
+        <v>0616</v>
       </c>
       <c r="M24" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="N24" s="3">
-        <v>330</v>
+        <v>228</v>
       </c>
       <c r="O24" s="3">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="4:15">
@@ -23016,26 +23659,26 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="I25">
-        <v>2032</v>
+        <v>2024</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>0521</v>
+        <v>0617</v>
       </c>
       <c r="M25" s="3">
-        <v>341</v>
+        <v>275</v>
       </c>
       <c r="N25" s="3">
-        <v>252</v>
+        <v>364</v>
       </c>
       <c r="O25" s="3">
-        <v>150</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="4:15">
@@ -23043,26 +23686,26 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="I26">
-        <v>2033</v>
+        <v>2024</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>0522</v>
+        <v>0618</v>
       </c>
       <c r="M26" s="3">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="N26" s="3">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O26" s="3">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="4:15">
@@ -23070,26 +23713,26 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="I27">
-        <v>2034</v>
+        <v>2024</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v>0523</v>
+        <v>0619</v>
       </c>
       <c r="M27" s="3">
-        <v>212</v>
+        <v>494</v>
       </c>
       <c r="N27" s="3">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="O27" s="3">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="4:15">
@@ -23097,26 +23740,26 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="I28">
-        <v>2035</v>
+        <v>2024</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>0525</v>
+        <v>0620</v>
       </c>
       <c r="M28" s="3">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="N28" s="3">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="O28" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="4:15">
@@ -23124,26 +23767,26 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="I29">
-        <v>2036</v>
+        <v>2024</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="1"/>
-        <v>0526</v>
+        <v>0621</v>
       </c>
       <c r="M29" s="3">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="N29" s="3">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="O29" s="3">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="4:15">
@@ -23151,26 +23794,26 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="I30">
-        <v>2037</v>
+        <v>2024</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
-        <v>0527</v>
+        <v>0622</v>
       </c>
       <c r="M30" s="3">
-        <v>436</v>
+        <v>102</v>
       </c>
       <c r="N30" s="3">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="O30" s="3">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="4:15">
@@ -23178,26 +23821,26 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="I31">
-        <v>2038</v>
+        <v>2024</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="1"/>
-        <v>0528</v>
+        <v>0623</v>
       </c>
       <c r="M31" s="3">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="N31" s="3">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="O31" s="3">
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="4:15">
@@ -23205,35 +23848,54 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="I32">
-        <v>2039</v>
+        <v>2024</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="1"/>
-        <v>0529</v>
+        <v>0624</v>
       </c>
       <c r="M32" s="3">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="N32" s="3">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="O32" s="3">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="4:15">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="I33">
+        <v>2024</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>0625</v>
+      </c>
+      <c r="M33">
+        <v>381</v>
+      </c>
+      <c r="N33">
+        <v>268</v>
+      </c>
+      <c r="O33">
+        <v>109</v>
+      </c>
     </row>
     <row r="34" spans="4:15">
       <c r="D34" s="3"/>
@@ -23302,10 +23964,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -23321,10 +23983,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -23338,7 +24000,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C20" si="0">_xlfn.CONCAT(A2:B2)</f>
+        <f t="shared" ref="C2:C21" si="0">_xlfn.CONCAT(A2:B2)</f>
         <v>202210</v>
       </c>
       <c r="D2" s="3">
@@ -23727,6 +24389,27 @@
       </c>
       <c r="F20" s="3">
         <v>2068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>2024</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>202405</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5212</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6067</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2982</v>
       </c>
     </row>
   </sheetData>
